--- a/upload/format data excel.xlsx
+++ b/upload/format data excel.xlsx
@@ -136,7 +136,7 @@
     <t>Umur dalam Tahun tanpa desimal</t>
   </si>
   <si>
-    <t>Jika ukuran file melebihi 2 MB, simpan ke dalam file yang berbeda</t>
+    <t>Jika ukuran file melebihi 1 MB, simpan ke dalam file yang berbeda</t>
   </si>
 </sst>
 </file>
@@ -238,6 +238,9 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -246,9 +249,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -732,7 +732,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,7 +788,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="20"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="23" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="9">
@@ -809,7 +809,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="22"/>
+      <c r="J3" s="23"/>
       <c r="K3" s="9">
         <v>1</v>
       </c>
@@ -826,10 +826,10 @@
       <c r="J4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="21"/>
+      <c r="L4" s="22"/>
       <c r="M4" s="1" t="s">
         <v>31</v>
       </c>
@@ -841,10 +841,10 @@
       <c r="J5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="21"/>
+      <c r="L5" s="22"/>
       <c r="M5" s="1" t="s">
         <v>31</v>
       </c>
@@ -853,16 +853,16 @@
       <c r="J6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="K6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="21"/>
+      <c r="L6" s="22"/>
       <c r="M6" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J7" s="23" t="s">
+      <c r="J7" s="24" t="s">
         <v>2</v>
       </c>
       <c r="K7" s="17" t="s">
@@ -876,7 +876,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J8" s="23"/>
+      <c r="J8" s="24"/>
       <c r="K8" s="17" t="s">
         <v>13</v>
       </c>
@@ -891,10 +891,10 @@
       <c r="J9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="21" t="s">
+      <c r="K9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="21"/>
+      <c r="L9" s="22"/>
       <c r="M9" s="1" t="s">
         <v>31</v>
       </c>
@@ -903,10 +903,10 @@
       <c r="J10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="K10" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="21"/>
+      <c r="L10" s="22"/>
       <c r="M10" s="1" t="s">
         <v>32</v>
       </c>
@@ -915,10 +915,10 @@
       <c r="J11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="21" t="s">
+      <c r="K11" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="L11" s="21"/>
+      <c r="L11" s="22"/>
       <c r="M11" s="1" t="s">
         <v>33</v>
       </c>
@@ -977,21 +977,21 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J24" s="24" t="s">
+      <c r="J24" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J28" s="14" t="s">
@@ -999,73 +999,73 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J29" s="24" t="s">
+      <c r="J29" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J31" s="24" t="s">
+      <c r="J31" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
     </row>
     <row r="33" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="J33" s="24" t="s">
+      <c r="J33" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
     </row>
     <row r="34" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
     </row>
     <row r="35" spans="8:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H35" s="13"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
     </row>
     <row r="36" spans="8:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J36" s="24" t="s">
+      <c r="J36" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
     </row>
     <row r="37" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
     </row>
     <row r="38" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
     </row>
     <row r="39" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
     </row>
     <row r="40" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
     </row>
     <row r="41" spans="8:12" x14ac:dyDescent="0.25">
       <c r="J41" s="19"/>
@@ -1078,14 +1078,9 @@
       <c r="L42" s="19"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="cR2PikJijD95JaVhD1GMEcf6PAgex7KYSg5oAtmMgeu2kU3zskpEz2ErIJodJ2oVhy6yAoPTqbNpzKLzxcl1Ug==" saltValue="/OYn6SRARd/dT6XBZpmLfQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" autoFilter="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7qXopJD/TuRIAC/y8MeBDQQRNmAZOpg1VvDrs0QHggz56UgEYozzlnrWjBfsN8ieMd829DgFAAEoIc3SPCipvQ==" saltValue="ZhRs8RMx5YwK8RLq534zdA==" spinCount="100000" sheet="1" objects="1" scenarios="1" autoFilter="0"/>
   <autoFilter ref="A1:H1"/>
   <mergeCells count="13">
-    <mergeCell ref="J33:L35"/>
-    <mergeCell ref="J36:L40"/>
-    <mergeCell ref="J24:L26"/>
-    <mergeCell ref="J29:L30"/>
-    <mergeCell ref="J31:L32"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="K11:L11"/>
@@ -1094,6 +1089,11 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K6:L6"/>
+    <mergeCell ref="J33:L35"/>
+    <mergeCell ref="J36:L40"/>
+    <mergeCell ref="J24:L26"/>
+    <mergeCell ref="J29:L30"/>
+    <mergeCell ref="J31:L32"/>
   </mergeCells>
   <conditionalFormatting sqref="D2:D1048576">
     <cfRule type="expression" dxfId="27" priority="27">
